--- a/plan/Coverage.xlsx
+++ b/plan/Coverage.xlsx
@@ -1,23 +1,304 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="INFO" sheetId="1" r:id="rId1"/>
+    <sheet name="input" sheetId="2" r:id="rId2"/>
+    <sheet name="output" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+  <si>
+    <t>covergroup</t>
+  </si>
+  <si>
+    <t>coverpoint</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>nr_bins</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>input_cvg</t>
+  </si>
+  <si>
+    <t>wr_rd_op</t>
+  </si>
+  <si>
+    <t>valid_in</t>
+  </si>
+  <si>
+    <t>wr_data_in</t>
+  </si>
+  <si>
+    <t>op_id_in</t>
+  </si>
+  <si>
+    <t>00, 55, AA, FF</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>ready_out</t>
+  </si>
+  <si>
+    <t>addr_in[7:5]</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>addr_in[4:0]</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>wr_rd_op_cvp</t>
+  </si>
+  <si>
+    <t>valid_in_cvp</t>
+  </si>
+  <si>
+    <t>addr_in_7_5_cvp</t>
+  </si>
+  <si>
+    <t>addr_in_4_0_cvp</t>
+  </si>
+  <si>
+    <t>wr_data_in_cvp</t>
+  </si>
+  <si>
+    <t>op_id_in_cvp</t>
+  </si>
+  <si>
+    <t>ready_out_cvp</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>output_cvg</t>
+  </si>
+  <si>
+    <t>wr_rd_s_out</t>
+  </si>
+  <si>
+    <t>sel_en_out</t>
+  </si>
+  <si>
+    <t>wr_data_out</t>
+  </si>
+  <si>
+    <t>rd_data_in</t>
+  </si>
+  <si>
+    <t>ack_in</t>
+  </si>
+  <si>
+    <t>wr_rd_s_out_cvp</t>
+  </si>
+  <si>
+    <t>sel_en_out_cvp</t>
+  </si>
+  <si>
+    <t>wr_data_out_cvp</t>
+  </si>
+  <si>
+    <t>rd_data_in_cvp</t>
+  </si>
+  <si>
+    <t>ack_in_cvp</t>
+  </si>
+  <si>
+    <t>0, 1 for every bit</t>
+  </si>
+  <si>
+    <t>2n</t>
+  </si>
+  <si>
+    <t>4n+19</t>
+  </si>
+  <si>
+    <t>cross_bins</t>
+  </si>
+  <si>
+    <t>total_bins</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>enable_in_cvp</t>
+  </si>
+  <si>
+    <t>enable_in</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Ar fi mai bine sa pun 2 tranzactii 0-&gt;1 si 1-&gt;0 in loc de 0 si 1?</t>
+  </si>
+  <si>
+    <t>wr_rd_cases_cross</t>
+  </si>
+  <si>
+    <t>Exists?</t>
+  </si>
+  <si>
+    <t>2*2*2
+= 8</t>
+  </si>
+  <si>
+    <t>Ar fi mai bine sa pun 4 tranzactii 00-&gt;55, 55-&gt;AA si AA-&gt;00 in loc de 00, 55, AA si FF? Ar mai fi FF necesar? Ar trebui sa pun si alte valori intermediare in afara de 00, 55, AA si FF?</t>
+  </si>
+  <si>
+    <t>Ar fi mai bine sa pun 2 tranzactii 0-&gt;1 si 1-&gt;0 in loc de 0 si 1 pentru fiecare bit? Cum scriu asta??? ---&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>covergroup bit_cvg(ref bit x);
+          x_cvp: coverpoint x;
+          option.per_instance = 1; // does not combine covergroups
+endgroup;
+bit_cvg ack_in_cvg[n];
+bit_cvg sel_en_out_cvg[n];
+foreach(ack_in_cvg[i]) ack_in_cvg[i] = new(ack_in[i]);
+foreach(sel_en_out_cvg[i]) sel_en_out_cvg[i] = new(sel_en_out[i]);</t>
+  </si>
+  <si>
+    <t>covergroup bit_cvg(input bit [n-1:0] pos, ref bit [n-1:0] v);
+         v_pos_cvp: coverpoint (pos &amp; x) != 0;
+          option.per_instance = 1;
+endgroup;
+bit_cvg ack_in_cvg[n];
+bit_cvg sel_en_out_cvg[n];
+foreach(ack_in_cvg[i]) ack_in_cvg[i] = new(1'b1&lt;&lt;i, ack_in);
+foreach(sel_en_out_cvg[i]) sel_en_out_cvg[i] = new(1'b1&lt;&lt;i, sel_en_out);</t>
+  </si>
+  <si>
+    <t>4*5*4
+= 80</t>
+  </si>
+  <si>
+    <t>data_port_register_cross</t>
+  </si>
+  <si>
+    <t>wr_rd_data_port_register_cross</t>
+  </si>
+  <si>
+    <t>80*2
+= 160</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Primele 2 crossuri sunt aceleasi ca la input_cvg. Sunt necesare si aici?</t>
+  </si>
+  <si>
+    <t>sel_en_out[n-1:0] poate lua locul lui addr_out[7:5]. Cu care ar trebui facut cross? Ar trebui sa fie separat sau mereu sa fie amandoua impreuna comparate?</t>
+  </si>
+  <si>
+    <t>* n = 5</t>
+  </si>
+  <si>
+    <t>0:4, [5:7]</t>
+  </si>
+  <si>
+    <t>0:3, [4:F]</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Ar fi nevoie de un cvp separat pentru valorile out of bounds (ca sa nu excludem binul respectiv la cross)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se poate scrie asa ceva? </t>
+  </si>
+  <si>
+    <t>E mai buna o astfel de abordare cu masca de biti?</t>
+  </si>
+  <si>
+    <t>4n+47</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross:
+          1. data_port_register_cross: Every data (00,55,AA,FF) has to be written in every register(0-3) and has to be intended for every port (0-4). enable_in and valid_in HIGH, option.weight = 0.
+          2. wr_rd_data_port_register_cross: Foe the previous cross, there has to be a write and a read transaction. enable_in and valid_in HIGH.
+          3. wr_rd, valid_in and enable_in are combined.
+Would it be better to split the first cross in 3? (1. data and register; 2. data and port; 3. register and port) </t>
+  </si>
+  <si>
+    <t>8n</t>
+  </si>
+  <si>
+    <t>read_data_port_cross</t>
+  </si>
+  <si>
+    <t>Cross:
+          1. 
+          2. 
+          3. read_data_port_cross:  Different read data for every port. When ack_in LOW, data always 00. Is it okay to exclude this case or should the coverpoints be build in another way?</t>
+  </si>
+  <si>
+    <t>160+8n</t>
+  </si>
+  <si>
+    <t>328+8n</t>
+  </si>
+  <si>
+    <t>12n+375</t>
+  </si>
+  <si>
+    <t>12n+179</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,15 +307,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -42,18 +329,704 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,37 +1316,815 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="78.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="53"/>
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="53"/>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="53"/>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="53"/>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="53"/>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="54"/>
+      <c r="C10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="16"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="53"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="44"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="53"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="45"/>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="53"/>
+      <c r="C19" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="53"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="45"/>
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="53"/>
+      <c r="C21" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="53"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="45"/>
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="54"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="H23" s="42"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H15:H23"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="94.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="67" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="60"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="60"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="53"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="60"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="53"/>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="60"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="53"/>
+      <c r="C7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="53"/>
+      <c r="C8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="60"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="54"/>
+      <c r="C9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="60"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="60"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="16"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="60"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="16"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="60"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="60"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="42"/>
+      <c r="J16" s="60"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="60"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="43"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="60"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="53"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="45"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="60"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="53"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="45"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="60"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="53"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="45"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="60"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="53"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="45"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="42"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="53"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="45"/>
+      <c r="H23" s="64"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="53"/>
+      <c r="C24" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="65"/>
+      <c r="H24" s="64"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="54"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="H25" s="64"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="H17:H25"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="I13:I22"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>